--- a/Lectures/Lecture 7/Transportation-1.xlsx
+++ b/Lectures/Lecture 7/Transportation-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianaoc/Documents/Courses/STOR 305/Fall 2019/Excel spreadsheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mario Documents\UNC\STOR 305\STOR305_WEBSITE\Lectures\Lecture 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0047D004-3959-1F41-A36F-939A12DCC3DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041EE206-E25D-4BC8-9A4D-3C3EDB0ED445}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="460" windowWidth="26520" windowHeight="15940" activeTab="2" xr2:uid="{940AE782-2A2A-834F-ACC0-329CB96BE19F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" activeTab="2" xr2:uid="{940AE782-2A2A-834F-ACC0-329CB96BE19F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sensitivity Report 1" sheetId="13" r:id="rId1"/>
@@ -99,10 +99,19 @@
     <definedName name="solver_ver" localSheetId="1" hidden="1">2</definedName>
     <definedName name="x">Standard!$B$16:$B$24</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -994,7 +1003,7 @@
       <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2.33203125" customWidth="1"/>
     <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
@@ -1005,27 +1014,27 @@
     <col min="7" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B7" s="33"/>
       <c r="C7" s="33"/>
       <c r="D7" s="33" t="s">
@@ -1044,7 +1053,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="34" t="s">
         <v>43</v>
       </c>
@@ -1067,7 +1076,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B9" s="31" t="s">
         <v>58</v>
       </c>
@@ -1090,7 +1099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B10" s="31" t="s">
         <v>60</v>
       </c>
@@ -1113,7 +1122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B11" s="31" t="s">
         <v>62</v>
       </c>
@@ -1136,7 +1145,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B12" s="31" t="s">
         <v>64</v>
       </c>
@@ -1159,7 +1168,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" s="31" t="s">
         <v>66</v>
       </c>
@@ -1182,7 +1191,7 @@
         <v>1E+30</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B14" s="31" t="s">
         <v>68</v>
       </c>
@@ -1205,7 +1214,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B15" s="31" t="s">
         <v>70</v>
       </c>
@@ -1228,7 +1237,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B16" s="31" t="s">
         <v>72</v>
       </c>
@@ -1251,7 +1260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" s="32" t="s">
         <v>74</v>
       </c>
@@ -1274,12 +1283,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B20" s="33"/>
       <c r="C20" s="33"/>
       <c r="D20" s="33" t="s">
@@ -1298,7 +1307,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B21" s="34" t="s">
         <v>43</v>
       </c>
@@ -1321,7 +1330,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B22" s="31" t="s">
         <v>76</v>
       </c>
@@ -1344,7 +1353,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B23" s="31" t="s">
         <v>78</v>
       </c>
@@ -1367,7 +1376,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B24" s="31" t="s">
         <v>80</v>
       </c>
@@ -1390,7 +1399,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B25" s="31" t="s">
         <v>82</v>
       </c>
@@ -1413,7 +1422,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B26" s="31" t="s">
         <v>84</v>
       </c>
@@ -1436,7 +1445,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B27" s="32" t="s">
         <v>86</v>
       </c>
@@ -1468,11 +1477,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E3BF62D-C942-EB40-9E69-CFC2011B4C00}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="6" width="6.5" bestFit="1" customWidth="1"/>
@@ -1482,12 +1491,12 @@
     <col min="10" max="10" width="6.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
@@ -1519,7 +1528,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="8"/>
       <c r="B4" s="8" t="s">
         <v>16</v>
@@ -1549,7 +1558,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
@@ -1581,7 +1590,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -1607,7 +1616,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>19</v>
       </c>
@@ -1653,7 +1662,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>21</v>
       </c>
@@ -1698,7 +1707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>20</v>
       </c>
@@ -1743,7 +1752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>22</v>
       </c>
@@ -1788,7 +1797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>23</v>
       </c>
@@ -1833,7 +1842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>24</v>
       </c>
@@ -1878,12 +1887,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -1891,7 +1900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1899,7 +1908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1907,7 +1916,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -1915,7 +1924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1923,7 +1932,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -1931,7 +1940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1939,7 +1948,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -1947,7 +1956,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -1955,7 +1964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -1977,18 +1986,18 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.83203125" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="22" t="s">
         <v>28</v>
       </c>
@@ -2011,7 +2020,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
         <v>29</v>
       </c>
@@ -2035,7 +2044,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="23" t="s">
         <v>30</v>
       </c>
@@ -2059,7 +2068,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="23" t="s">
         <v>31</v>
       </c>
@@ -2083,7 +2092,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="24" t="s">
         <v>32</v>
       </c>
@@ -2103,7 +2112,7 @@
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="24" t="s">
         <v>0</v>
       </c>
@@ -2120,7 +2129,7 @@
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="24" t="s">
         <v>33</v>
       </c>
@@ -2137,7 +2146,7 @@
       <c r="F10" s="26"/>
       <c r="G10" s="26"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="24" t="s">
         <v>34</v>
       </c>
@@ -2151,7 +2160,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B12" s="3"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -2159,7 +2168,7 @@
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="22" t="s">
         <v>28</v>
       </c>
@@ -2173,7 +2182,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="23" t="s">
         <v>29</v>
       </c>
@@ -2187,7 +2196,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="23" t="s">
         <v>30</v>
       </c>
@@ -2201,7 +2210,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="23" t="s">
         <v>31</v>
       </c>

--- a/Lectures/Lecture 7/Transportation-1.xlsx
+++ b/Lectures/Lecture 7/Transportation-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mario Documents\UNC\STOR 305\STOR305_WEBSITE\Lectures\Lecture 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041EE206-E25D-4BC8-9A4D-3C3EDB0ED445}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A5CE68-46EF-4D22-8015-AF751ACD22CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" activeTab="2" xr2:uid="{940AE782-2A2A-834F-ACC0-329CB96BE19F}"/>
   </bookViews>
@@ -95,7 +95,7 @@
     <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">2</definedName>
     <definedName name="x">Standard!$B$16:$B$24</definedName>
   </definedNames>
@@ -1982,8 +1982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{561A7618-E4DE-914B-82B7-4C459D2F7C56}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
